--- a/CourseProject/Inital Team Data.xlsx
+++ b/CourseProject/Inital Team Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamp\Desktop\AdamPuntonRepository\CourseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C45F59-C54C-4C7C-AB68-B80558490CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F9A5A2-4605-4740-8B69-78DFCB6973D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E22500F6-834A-4823-B52E-78239BBFD30A}"/>
   </bookViews>
@@ -286,9 +286,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -304,19 +303,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2101,7 +2100,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2111,198 +2110,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D2D897-D121-4645-9F67-AEE4D3E1709B}">
   <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5">
         <v>50</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>35</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>15</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>0.7</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>48.6</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>117.6</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>41.8</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>88.5</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>47.2</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>15.5</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>41.7</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>37</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>18.600000000000001</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>22.4</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <v>82.9</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="7">
         <v>34.9</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="7">
         <v>44.7</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="7">
         <v>26.5</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="7">
         <v>13.6</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="7">
         <v>6.4</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="7">
         <v>5.4</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="7">
         <v>3.9</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="7">
         <v>18.899999999999999</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA2" s="5">
         <v>19.600000000000001</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB2" s="5">
         <v>5.5</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="7"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
@@ -2312,113 +2312,113 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5">
         <v>49</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>34</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>15</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0.69399999999999995</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>48.2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>116.5</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>43.7</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>86.1</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>50.7</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>12.1</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>30.7</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>39.5</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>17</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>22.8</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>74.3</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="7">
         <v>32.700000000000003</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <v>42.9</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <v>28.6</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="7">
         <v>15</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="7">
         <v>7.5</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="7">
         <v>19.399999999999999</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="5">
         <v>20.2</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -2428,113 +2428,113 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
         <v>47</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>31</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>16</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0.66</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>48.5</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>114.6</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>40.9</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>84.7</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>48.2</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>12.8</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>33.4</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>38.200000000000003</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>20.100000000000001</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>24.2</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>83</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="7">
         <v>8.6</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="7">
         <v>31.9</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="7">
         <v>40.6</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="7">
         <v>25.1</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="7">
         <v>14</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="7">
         <v>8</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="7">
         <v>5</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="7">
         <v>20.7</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="5">
         <v>19.899999999999999</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="5">
         <v>3.9</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -2544,113 +2544,113 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5">
         <v>48</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>31</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>17</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0.64600000000000002</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>48.2</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>117.1</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>43.7</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>93.1</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>47</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>11.5</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>32.9</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>34.9</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>18.2</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>25.5</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>71.099999999999994</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="7">
         <v>13.3</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="7">
         <v>35.4</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="7">
         <v>48.7</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="7">
         <v>25.4</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="7">
         <v>14.3</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="7">
         <v>8.1</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="7">
         <v>6</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="7">
         <v>5.4</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="Z8" s="7">
         <v>20.2</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AA8" s="5">
         <v>21.5</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8" s="5">
         <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="7"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -2660,113 +2660,113 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5">
         <v>48</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>31</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>17</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>0.64600000000000002</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>48.4</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>113.1</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>41</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>89.5</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>45.8</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>14.2</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>39.5</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>35.9</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>16.8</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>22.6</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>74.2</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="7">
         <v>11.8</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="7">
         <v>36.5</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="7">
         <v>48.3</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="7">
         <v>24.7</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="7">
         <v>15.5</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="7">
         <v>6.7</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="7">
         <v>4.3</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="Z10" s="7">
         <v>18.3</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="5">
         <v>18.7</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="5">
         <v>1.6</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="7"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -2776,113 +2776,113 @@
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5">
         <v>48</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>29</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>19</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>0.60399999999999998</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>48.1</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>114.3</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>42.8</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>84</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>50.9</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>12.2</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>31.2</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>39</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>16.5</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <v>20.9</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>78.900000000000006</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="7">
         <v>7.6</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="7">
         <v>32.799999999999997</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="7">
         <v>40.4</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="7">
         <v>26.3</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="7">
         <v>14.7</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="7">
         <v>7</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="7">
         <v>6.9</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Y12" s="7">
         <v>3.8</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="7">
         <v>22</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AA12" s="5">
         <v>18.399999999999999</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="5">
         <v>2.7</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="10"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -2892,113 +2892,113 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5">
         <v>50</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>30</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>20</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>0.6</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>48.7</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>111.5</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>40.799999999999997</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>84.4</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>48.3</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>11.5</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <v>31.5</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>36.4</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>18.5</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>23.7</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <v>77.8</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="7">
         <v>32.5</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="7">
         <v>42.3</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="7">
         <v>24.1</v>
       </c>
-      <c r="V14" s="8">
+      <c r="V14" s="7">
         <v>14</v>
       </c>
-      <c r="W14" s="8">
+      <c r="W14" s="7">
         <v>6.6</v>
       </c>
-      <c r="X14" s="8">
+      <c r="X14" s="7">
         <v>4.2</v>
       </c>
-      <c r="Y14" s="8">
+      <c r="Y14" s="7">
         <v>4.3</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="Z14" s="7">
         <v>18.7</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="5">
         <v>21.2</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AB14" s="5">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="7"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -3008,113 +3008,113 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>8</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5">
         <v>47</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>27</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>20</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>0.57399999999999995</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>48.1</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>119.7</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>43.2</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>87.4</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>49.5</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>13.7</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <v>36.799999999999997</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <v>37.200000000000003</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>19.600000000000001</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <v>24.7</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <v>79.5</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="7">
         <v>9</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="7">
         <v>33.200000000000003</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="7">
         <v>42.1</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="7">
         <v>27.2</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="7">
         <v>14.4</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W16" s="7">
         <v>6.7</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X16" s="7">
         <v>3.3</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="Y16" s="7">
         <v>4.3</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="Z16" s="7">
         <v>20</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AA16" s="5">
         <v>21.3</v>
       </c>
-      <c r="AB16" s="6">
+      <c r="AB16" s="5">
         <v>3.1</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="7"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -3124,113 +3124,113 @@
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>9</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5">
         <v>49</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>27</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>22</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>0.55100000000000005</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>48.3</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>108.4</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>39.200000000000003</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>86.6</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>45.3</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>11.9</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <v>35.4</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>33.5</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>18.2</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="5">
         <v>22</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="5">
         <v>82.6</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="7">
         <v>10.1</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="7">
         <v>31.5</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="7">
         <v>41.6</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="7">
         <v>23.5</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V18" s="7">
         <v>13.6</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W18" s="7">
         <v>8.5</v>
       </c>
-      <c r="X18" s="8">
+      <c r="X18" s="7">
         <v>3</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="Y18" s="7">
         <v>3.9</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="Z18" s="7">
         <v>18.8</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AA18" s="5">
         <v>19.7</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AB18" s="5">
         <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="7"/>
+      <c r="K19" s="10"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -3240,113 +3240,113 @@
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>10</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5">
         <v>50</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>27</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>23</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>0.54</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>48.7</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>114.2</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>41.2</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>90</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>45.7</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>12</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="7">
         <v>34.9</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <v>34.5</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <v>19.899999999999999</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="5">
         <v>25.7</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="5">
         <v>77.3</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="7">
         <v>13.2</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="7">
         <v>34.1</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="7">
         <v>47.3</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="7">
         <v>22.5</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V20" s="7">
         <v>13.1</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W20" s="7">
         <v>6.3</v>
       </c>
-      <c r="X20" s="8">
+      <c r="X20" s="7">
         <v>4.2</v>
       </c>
-      <c r="Y20" s="8">
+      <c r="Y20" s="7">
         <v>4.7</v>
       </c>
-      <c r="Z20" s="8">
+      <c r="Z20" s="7">
         <v>20.6</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AA20" s="5">
         <v>21.3</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AB20" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="7"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -3356,113 +3356,113 @@
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>11</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5">
         <v>49</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>26</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>23</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>0.53100000000000003</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>48.6</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>115.3</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <v>42.2</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <v>88.2</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>47.8</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>11</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="7">
         <v>30.8</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <v>35.799999999999997</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="5">
         <v>19.899999999999999</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="5">
         <v>25.6</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="5">
         <v>77.8</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="7">
         <v>11.2</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22" s="7">
         <v>33.200000000000003</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="7">
         <v>44.4</v>
       </c>
-      <c r="U22" s="8">
+      <c r="U22" s="7">
         <v>25.9</v>
       </c>
-      <c r="V22" s="8">
+      <c r="V22" s="7">
         <v>15.3</v>
       </c>
-      <c r="W22" s="8">
+      <c r="W22" s="7">
         <v>8.5</v>
       </c>
-      <c r="X22" s="8">
+      <c r="X22" s="7">
         <v>4.3</v>
       </c>
-      <c r="Y22" s="8">
+      <c r="Y22" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Z22" s="8">
+      <c r="Z22" s="7">
         <v>20.399999999999999</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AA22" s="5">
         <v>20.8</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AB22" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="7"/>
+      <c r="K23" s="10"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -3472,113 +3472,113 @@
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>12</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5">
         <v>51</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>27</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>24</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>0.52900000000000003</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>48.2</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>110.7</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <v>40.1</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <v>85.3</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>47</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <v>12.7</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="7">
         <v>33.4</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <v>38</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>17.899999999999999</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="5">
         <v>23.4</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="5">
         <v>76.599999999999994</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="7">
         <v>10</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="7">
         <v>33.700000000000003</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="7">
         <v>43.8</v>
       </c>
-      <c r="U24" s="8">
+      <c r="U24" s="7">
         <v>22.9</v>
       </c>
-      <c r="V24" s="8">
+      <c r="V24" s="7">
         <v>14.6</v>
       </c>
-      <c r="W24" s="8">
+      <c r="W24" s="7">
         <v>6.5</v>
       </c>
-      <c r="X24" s="8">
+      <c r="X24" s="7">
         <v>4.7</v>
       </c>
-      <c r="Y24" s="8">
+      <c r="Y24" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Z24" s="8">
+      <c r="Z24" s="7">
         <v>19.7</v>
       </c>
-      <c r="AA24" s="6">
+      <c r="AA24" s="5">
         <v>19.100000000000001</v>
       </c>
-      <c r="AB24" s="6">
+      <c r="AB24" s="5">
         <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="10"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
@@ -3588,113 +3588,113 @@
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>13</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5">
         <v>50</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>26</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>24</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>0.52</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>48.7</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>112.6</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <v>39.200000000000003</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="7">
         <v>83.1</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>47.1</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <v>14.7</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="7">
         <v>40.5</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="5">
         <v>36.200000000000003</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="5">
         <v>19.600000000000001</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="5">
         <v>26.4</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q26" s="5">
         <v>74.3</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="7">
         <v>7.8</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" s="7">
         <v>31</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T26" s="7">
         <v>38.700000000000003</v>
       </c>
-      <c r="U26" s="8">
+      <c r="U26" s="7">
         <v>22</v>
       </c>
-      <c r="V26" s="8">
+      <c r="V26" s="7">
         <v>12.3</v>
       </c>
-      <c r="W26" s="8">
+      <c r="W26" s="7">
         <v>6.5</v>
       </c>
-      <c r="X26" s="8">
+      <c r="X26" s="7">
         <v>4</v>
       </c>
-      <c r="Y26" s="8">
+      <c r="Y26" s="7">
         <v>4</v>
       </c>
-      <c r="Z26" s="8">
+      <c r="Z26" s="7">
         <v>21</v>
       </c>
-      <c r="AA26" s="6">
+      <c r="AA26" s="5">
         <v>22.7</v>
       </c>
-      <c r="AB26" s="6">
+      <c r="AB26" s="5">
         <v>0.4</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="10"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
@@ -3704,113 +3704,113 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>14</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5">
         <v>49</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>25</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>24</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>0.51</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>48.5</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>116.1</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <v>43.8</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <v>91.7</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>47.8</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="7">
         <v>10.6</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="7">
         <v>30.7</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="5">
         <v>34.6</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="5">
         <v>17.8</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="5">
         <v>21.8</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28" s="5">
         <v>81.900000000000006</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R28" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S28" s="7">
         <v>33.200000000000003</v>
       </c>
-      <c r="T28" s="8">
+      <c r="T28" s="7">
         <v>43.4</v>
       </c>
-      <c r="U28" s="8">
+      <c r="U28" s="7">
         <v>24.2</v>
       </c>
-      <c r="V28" s="8">
+      <c r="V28" s="7">
         <v>13.1</v>
       </c>
-      <c r="W28" s="8">
+      <c r="W28" s="7">
         <v>6.9</v>
       </c>
-      <c r="X28" s="8">
+      <c r="X28" s="7">
         <v>5</v>
       </c>
-      <c r="Y28" s="8">
+      <c r="Y28" s="7">
         <v>5</v>
       </c>
-      <c r="Z28" s="8">
+      <c r="Z28" s="7">
         <v>19.100000000000001</v>
       </c>
-      <c r="AA28" s="6">
+      <c r="AA28" s="5">
         <v>20.100000000000001</v>
       </c>
-      <c r="AB28" s="6">
+      <c r="AB28" s="5">
         <v>-0.4</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="7"/>
+      <c r="K29" s="10"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -3820,113 +3820,113 @@
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>15</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5">
         <v>48</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>24</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>24</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>0.5</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>48.4</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>117.7</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <v>42.5</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="7">
         <v>90.1</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>47.2</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>16.399999999999999</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="7">
         <v>43.3</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="5">
         <v>37.799999999999997</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="5">
         <v>16.3</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="5">
         <v>20.5</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30" s="5">
         <v>79.5</v>
       </c>
-      <c r="R30" s="8">
+      <c r="R30" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="S30" s="8">
+      <c r="S30" s="7">
         <v>33.9</v>
       </c>
-      <c r="T30" s="8">
+      <c r="T30" s="7">
         <v>44.1</v>
       </c>
-      <c r="U30" s="8">
+      <c r="U30" s="7">
         <v>29.3</v>
       </c>
-      <c r="V30" s="8">
+      <c r="V30" s="7">
         <v>16.7</v>
       </c>
-      <c r="W30" s="8">
+      <c r="W30" s="7">
         <v>7</v>
       </c>
-      <c r="X30" s="8">
+      <c r="X30" s="7">
         <v>3.9</v>
       </c>
-      <c r="Y30" s="8">
+      <c r="Y30" s="7">
         <v>4.2</v>
       </c>
-      <c r="Z30" s="8">
+      <c r="Z30" s="7">
         <v>22.3</v>
       </c>
-      <c r="AA30" s="6">
+      <c r="AA30" s="5">
         <v>18.8</v>
       </c>
-      <c r="AB30" s="6">
+      <c r="AB30" s="5">
         <v>-0.3</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="7"/>
+      <c r="K31" s="10"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
@@ -3936,113 +3936,113 @@
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>15</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5">
         <v>50</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>25</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>25</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>0.5</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>48.1</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>115.2</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <v>42.5</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="7">
         <v>86.4</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>49.2</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="7">
         <v>11.6</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="7">
         <v>32.700000000000003</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="5">
         <v>35.4</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="5">
         <v>18.600000000000001</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="5">
         <v>23.9</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="5">
         <v>77.900000000000006</v>
       </c>
-      <c r="R32" s="8">
+      <c r="R32" s="7">
         <v>9</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S32" s="7">
         <v>31.9</v>
       </c>
-      <c r="T32" s="8">
+      <c r="T32" s="7">
         <v>40.9</v>
       </c>
-      <c r="U32" s="8">
+      <c r="U32" s="7">
         <v>25.2</v>
       </c>
-      <c r="V32" s="8">
+      <c r="V32" s="7">
         <v>15.7</v>
       </c>
-      <c r="W32" s="8">
+      <c r="W32" s="7">
         <v>8.4</v>
       </c>
-      <c r="X32" s="8">
+      <c r="X32" s="7">
         <v>5.4</v>
       </c>
-      <c r="Y32" s="8">
+      <c r="Y32" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Z32" s="8">
+      <c r="Z32" s="7">
         <v>22</v>
       </c>
-      <c r="AA32" s="6">
+      <c r="AA32" s="5">
         <v>20.3</v>
       </c>
-      <c r="AB32" s="6">
+      <c r="AB32" s="5">
         <v>-0.2</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="7"/>
+      <c r="K33" s="10"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
@@ -4052,113 +4052,113 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>15</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5">
         <v>50</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>25</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>25</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>0.5</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>48.3</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <v>112.6</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <v>41.4</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="7">
         <v>89.7</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>46.2</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="7">
         <v>13</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="7">
         <v>33.4</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="5">
         <v>38.799999999999997</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="5">
         <v>16.8</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="5">
         <v>21.1</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="Q34" s="5">
         <v>79.5</v>
       </c>
-      <c r="R34" s="8">
+      <c r="R34" s="7">
         <v>11.8</v>
       </c>
-      <c r="S34" s="8">
+      <c r="S34" s="7">
         <v>31.9</v>
       </c>
-      <c r="T34" s="8">
+      <c r="T34" s="7">
         <v>43.7</v>
       </c>
-      <c r="U34" s="8">
+      <c r="U34" s="7">
         <v>26.9</v>
       </c>
-      <c r="V34" s="8">
+      <c r="V34" s="7">
         <v>14.3</v>
       </c>
-      <c r="W34" s="8">
+      <c r="W34" s="7">
         <v>6.8</v>
       </c>
-      <c r="X34" s="8">
+      <c r="X34" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Y34" s="8">
+      <c r="Y34" s="7">
         <v>4.2</v>
       </c>
-      <c r="Z34" s="8">
+      <c r="Z34" s="7">
         <v>21.2</v>
       </c>
-      <c r="AA34" s="6">
+      <c r="AA34" s="5">
         <v>20.2</v>
       </c>
-      <c r="AB34" s="6">
+      <c r="AB34" s="5">
         <v>1.2</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="7"/>
+      <c r="K35" s="10"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
@@ -4168,113 +4168,113 @@
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>18</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5">
         <v>51</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>25</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>26</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>0.49</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>48.3</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>117.7</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <v>42.2</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <v>89.2</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <v>47.3</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="7">
         <v>14.5</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="7">
         <v>39.5</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="5">
         <v>18.7</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="5">
         <v>23.8</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q36" s="5">
         <v>78.5</v>
       </c>
-      <c r="R36" s="8">
+      <c r="R36" s="7">
         <v>11.6</v>
       </c>
-      <c r="S36" s="8">
+      <c r="S36" s="7">
         <v>32.6</v>
       </c>
-      <c r="T36" s="8">
+      <c r="T36" s="7">
         <v>44.2</v>
       </c>
-      <c r="U36" s="8">
+      <c r="U36" s="7">
         <v>25.9</v>
       </c>
-      <c r="V36" s="8">
+      <c r="V36" s="7">
         <v>15.2</v>
       </c>
-      <c r="W36" s="8">
+      <c r="W36" s="7">
         <v>6.8</v>
       </c>
-      <c r="X36" s="8">
+      <c r="X36" s="7">
         <v>4.8</v>
       </c>
-      <c r="Y36" s="8">
+      <c r="Y36" s="7">
         <v>4.8</v>
       </c>
-      <c r="Z36" s="8">
+      <c r="Z36" s="7">
         <v>20.8</v>
       </c>
-      <c r="AA36" s="6">
+      <c r="AA36" s="5">
         <v>21</v>
       </c>
-      <c r="AB36" s="6">
+      <c r="AB36" s="5">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="7"/>
+      <c r="K37" s="10"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
@@ -4284,113 +4284,113 @@
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>19</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5">
         <v>50</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>24</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>26</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>0.48</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>48.1</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <v>115.1</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="7">
         <v>41</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="7">
         <v>89.8</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <v>45.6</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="7">
         <v>13.9</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="7">
         <v>38.4</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="5">
         <v>36.200000000000003</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="5">
         <v>19.2</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38" s="5">
         <v>24</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q38" s="5">
         <v>80.099999999999994</v>
       </c>
-      <c r="R38" s="8">
+      <c r="R38" s="7">
         <v>10.3</v>
       </c>
-      <c r="S38" s="8">
+      <c r="S38" s="7">
         <v>31.9</v>
       </c>
-      <c r="T38" s="8">
+      <c r="T38" s="7">
         <v>42.2</v>
       </c>
-      <c r="U38" s="8">
+      <c r="U38" s="7">
         <v>26.5</v>
       </c>
-      <c r="V38" s="8">
+      <c r="V38" s="7">
         <v>15.3</v>
       </c>
-      <c r="W38" s="8">
+      <c r="W38" s="7">
         <v>8.1</v>
       </c>
-      <c r="X38" s="8">
+      <c r="X38" s="7">
         <v>6</v>
       </c>
-      <c r="Y38" s="8">
+      <c r="Y38" s="7">
         <v>5.2</v>
       </c>
-      <c r="Z38" s="8">
+      <c r="Z38" s="7">
         <v>21.5</v>
       </c>
-      <c r="AA38" s="6">
+      <c r="AA38" s="5">
         <v>20.399999999999999</v>
       </c>
-      <c r="AB38" s="6">
+      <c r="AB38" s="5">
         <v>-1.7</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="7"/>
+      <c r="K39" s="10"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
@@ -4400,113 +4400,113 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>20</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5">
         <v>48</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>23</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>25</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>0.47899999999999998</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>48.6</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <v>116.9</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="7">
         <v>43.4</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="7">
         <v>92.9</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="5">
         <v>46.7</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L40" s="7">
         <v>12.1</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="7">
         <v>33.700000000000003</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="5">
         <v>35.9</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="5">
         <v>17.899999999999999</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="5">
         <v>22.6</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="Q40" s="5">
         <v>79.2</v>
       </c>
-      <c r="R40" s="8">
+      <c r="R40" s="7">
         <v>11.4</v>
       </c>
-      <c r="S40" s="8">
+      <c r="S40" s="7">
         <v>32.6</v>
       </c>
-      <c r="T40" s="8">
+      <c r="T40" s="7">
         <v>44.1</v>
       </c>
-      <c r="U40" s="8">
+      <c r="U40" s="7">
         <v>24.6</v>
       </c>
-      <c r="V40" s="8">
+      <c r="V40" s="7">
         <v>13.7</v>
       </c>
-      <c r="W40" s="8">
+      <c r="W40" s="7">
         <v>8.1</v>
       </c>
-      <c r="X40" s="8">
+      <c r="X40" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Y40" s="8">
+      <c r="Y40" s="7">
         <v>5.4</v>
       </c>
-      <c r="Z40" s="8">
+      <c r="Z40" s="7">
         <v>21.9</v>
       </c>
-      <c r="AA40" s="6">
+      <c r="AA40" s="5">
         <v>19.8</v>
       </c>
-      <c r="AB40" s="6">
+      <c r="AB40" s="5">
         <v>0.9</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="7"/>
+      <c r="K41" s="10"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
@@ -4516,113 +4516,113 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>20</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5">
         <v>48</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>23</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>25</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>0.47899999999999998</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>48.2</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <v>114</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="7">
         <v>40.6</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="7">
         <v>84.6</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>48</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="7">
         <v>12.9</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="7">
         <v>34.200000000000003</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="5">
         <v>37.6</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="5">
         <v>19.899999999999999</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="5">
         <v>25.3</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="Q42" s="5">
         <v>78.5</v>
       </c>
-      <c r="R42" s="8">
+      <c r="R42" s="7">
         <v>10.4</v>
       </c>
-      <c r="S42" s="8">
+      <c r="S42" s="7">
         <v>32.4</v>
       </c>
-      <c r="T42" s="8">
+      <c r="T42" s="7">
         <v>42.8</v>
       </c>
-      <c r="U42" s="8">
+      <c r="U42" s="7">
         <v>24.4</v>
       </c>
-      <c r="V42" s="8">
+      <c r="V42" s="7">
         <v>15.2</v>
       </c>
-      <c r="W42" s="8">
+      <c r="W42" s="7">
         <v>6.6</v>
       </c>
-      <c r="X42" s="8">
+      <c r="X42" s="7">
         <v>4.3</v>
       </c>
-      <c r="Y42" s="8">
+      <c r="Y42" s="7">
         <v>4.5</v>
       </c>
-      <c r="Z42" s="8">
+      <c r="Z42" s="7">
         <v>20.9</v>
       </c>
-      <c r="AA42" s="6">
+      <c r="AA42" s="5">
         <v>21.5</v>
       </c>
-      <c r="AB42" s="6">
+      <c r="AB42" s="5">
         <v>0.7</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="7"/>
+      <c r="K43" s="10"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
@@ -4632,113 +4632,113 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="7"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>22</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6">
+      <c r="B44" s="4"/>
+      <c r="C44" s="5">
         <v>49</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>23</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>26</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>0.46899999999999997</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <v>48.5</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="5">
         <v>117</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="7">
         <v>43.2</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="7">
         <v>89.4</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <v>48.3</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L44" s="7">
         <v>10.5</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="7">
         <v>31.1</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="5">
         <v>33.700000000000003</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="5">
         <v>20.100000000000001</v>
       </c>
-      <c r="P44" s="6">
+      <c r="P44" s="5">
         <v>25.5</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="Q44" s="5">
         <v>78.900000000000006</v>
       </c>
-      <c r="R44" s="8">
+      <c r="R44" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="S44" s="8">
+      <c r="S44" s="7">
         <v>35.6</v>
       </c>
-      <c r="T44" s="8">
+      <c r="T44" s="7">
         <v>44.9</v>
       </c>
-      <c r="U44" s="8">
+      <c r="U44" s="7">
         <v>24.9</v>
       </c>
-      <c r="V44" s="8">
+      <c r="V44" s="7">
         <v>14.1</v>
       </c>
-      <c r="W44" s="8">
+      <c r="W44" s="7">
         <v>6.7</v>
       </c>
-      <c r="X44" s="8">
+      <c r="X44" s="7">
         <v>4.8</v>
       </c>
-      <c r="Y44" s="8">
+      <c r="Y44" s="7">
         <v>5.3</v>
       </c>
-      <c r="Z44" s="8">
+      <c r="Z44" s="7">
         <v>18.5</v>
       </c>
-      <c r="AA44" s="6">
+      <c r="AA44" s="5">
         <v>21.1</v>
       </c>
-      <c r="AB44" s="6">
+      <c r="AB44" s="5">
         <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7"/>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="7"/>
+      <c r="K45" s="10"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
@@ -4748,113 +4748,113 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>23</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6">
+      <c r="B46" s="4"/>
+      <c r="C46" s="5">
         <v>48</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>22</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>26</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>0.45800000000000002</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <v>48.5</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="5">
         <v>114.2</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="7">
         <v>42.7</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="7">
         <v>87.7</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="5">
         <v>48.7</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L46" s="7">
         <v>10.6</v>
       </c>
-      <c r="M46" s="8">
+      <c r="M46" s="7">
         <v>29</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="5">
         <v>36.4</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="5">
         <v>18.3</v>
       </c>
-      <c r="P46" s="6">
+      <c r="P46" s="5">
         <v>22.4</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="Q46" s="5">
         <v>81.5</v>
       </c>
-      <c r="R46" s="8">
+      <c r="R46" s="7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="S46" s="8">
+      <c r="S46" s="7">
         <v>33.799999999999997</v>
       </c>
-      <c r="T46" s="8">
+      <c r="T46" s="7">
         <v>42.5</v>
       </c>
-      <c r="U46" s="8">
+      <c r="U46" s="7">
         <v>24.2</v>
       </c>
-      <c r="V46" s="8">
+      <c r="V46" s="7">
         <v>13.6</v>
       </c>
-      <c r="W46" s="8">
+      <c r="W46" s="7">
         <v>7.6</v>
       </c>
-      <c r="X46" s="8">
+      <c r="X46" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y46" s="8">
+      <c r="Y46" s="7">
         <v>5.2</v>
       </c>
-      <c r="Z46" s="8">
+      <c r="Z46" s="7">
         <v>19.8</v>
       </c>
-      <c r="AA46" s="6">
+      <c r="AA46" s="5">
         <v>19</v>
       </c>
-      <c r="AB46" s="6">
+      <c r="AB46" s="5">
         <v>-0.4</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="7"/>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="7"/>
+      <c r="K47" s="10"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
@@ -4864,113 +4864,113 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="9"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>23</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6">
+      <c r="B48" s="4"/>
+      <c r="C48" s="5">
         <v>48</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>22</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>26</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>0.45800000000000002</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>48.2</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <v>112.7</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="7">
         <v>41.7</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="7">
         <v>87.2</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <v>47.9</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="7">
         <v>11.1</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="7">
         <v>31.9</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N48" s="5">
         <v>34.9</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P48" s="5">
         <v>23.4</v>
       </c>
-      <c r="Q48" s="6">
+      <c r="Q48" s="5">
         <v>77.599999999999994</v>
       </c>
-      <c r="R48" s="8">
+      <c r="R48" s="7">
         <v>9.5</v>
       </c>
-      <c r="S48" s="8">
+      <c r="S48" s="7">
         <v>34.6</v>
       </c>
-      <c r="T48" s="8">
+      <c r="T48" s="7">
         <v>44.2</v>
       </c>
-      <c r="U48" s="8">
+      <c r="U48" s="7">
         <v>25.2</v>
       </c>
-      <c r="V48" s="8">
+      <c r="V48" s="7">
         <v>13.8</v>
       </c>
-      <c r="W48" s="8">
+      <c r="W48" s="7">
         <v>6.8</v>
       </c>
-      <c r="X48" s="8">
+      <c r="X48" s="7">
         <v>5.3</v>
       </c>
-      <c r="Y48" s="8">
+      <c r="Y48" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Z48" s="8">
+      <c r="Z48" s="7">
         <v>19.5</v>
       </c>
-      <c r="AA48" s="6">
+      <c r="AA48" s="5">
         <v>19.7</v>
       </c>
-      <c r="AB48" s="6">
+      <c r="AB48" s="5">
         <v>-0.7</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="7"/>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="7"/>
+      <c r="K49" s="10"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
@@ -4980,113 +4980,113 @@
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
       <c r="Z49" s="9"/>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>25</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6">
+      <c r="B50" s="4"/>
+      <c r="C50" s="5">
         <v>49</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>22</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>27</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>0.44900000000000001</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>48.4</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="5">
         <v>112.6</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="7">
         <v>40.9</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="7">
         <v>90.4</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="5">
         <v>45.2</v>
       </c>
-      <c r="L50" s="8">
+      <c r="L50" s="7">
         <v>10.9</v>
       </c>
-      <c r="M50" s="8">
+      <c r="M50" s="7">
         <v>32.6</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N50" s="5">
         <v>33.4</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O50" s="5">
         <v>20</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P50" s="5">
         <v>25.3</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="Q50" s="5">
         <v>79.099999999999994</v>
       </c>
-      <c r="R50" s="8">
+      <c r="R50" s="7">
         <v>12.4</v>
       </c>
-      <c r="S50" s="8">
+      <c r="S50" s="7">
         <v>30</v>
       </c>
-      <c r="T50" s="8">
+      <c r="T50" s="7">
         <v>42.4</v>
       </c>
-      <c r="U50" s="8">
+      <c r="U50" s="7">
         <v>23.2</v>
       </c>
-      <c r="V50" s="8">
+      <c r="V50" s="7">
         <v>11.9</v>
       </c>
-      <c r="W50" s="8">
+      <c r="W50" s="7">
         <v>9.4</v>
       </c>
-      <c r="X50" s="8">
+      <c r="X50" s="7">
         <v>5.3</v>
       </c>
-      <c r="Y50" s="8">
+      <c r="Y50" s="7">
         <v>4.5</v>
       </c>
-      <c r="Z50" s="8">
+      <c r="Z50" s="7">
         <v>20.399999999999999</v>
       </c>
-      <c r="AA50" s="6">
+      <c r="AA50" s="5">
         <v>21.1</v>
       </c>
-      <c r="AB50" s="6">
+      <c r="AB50" s="5">
         <v>0.6</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="7"/>
-      <c r="B51" s="4" t="s">
+      <c r="A51" s="10"/>
+      <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="7"/>
+      <c r="K51" s="10"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
@@ -5096,113 +5096,113 @@
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
       <c r="Z51" s="9"/>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="7"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>26</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="6">
+      <c r="B52" s="4"/>
+      <c r="C52" s="5">
         <v>48</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>19</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>29</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>0.39600000000000002</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>48.2</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="5">
         <v>111.3</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="7">
         <v>40.200000000000003</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="7">
         <v>85</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="5">
         <v>47.3</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L52" s="7">
         <v>11</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M52" s="7">
         <v>31.1</v>
       </c>
-      <c r="N52" s="6">
+      <c r="N52" s="5">
         <v>35.299999999999997</v>
       </c>
-      <c r="O52" s="6">
+      <c r="O52" s="5">
         <v>19.899999999999999</v>
       </c>
-      <c r="P52" s="6">
+      <c r="P52" s="5">
         <v>25.2</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="Q52" s="5">
         <v>79.099999999999994</v>
       </c>
-      <c r="R52" s="8">
+      <c r="R52" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="S52" s="8">
+      <c r="S52" s="7">
         <v>32.799999999999997</v>
       </c>
-      <c r="T52" s="8">
+      <c r="T52" s="7">
         <v>42.6</v>
       </c>
-      <c r="U52" s="8">
+      <c r="U52" s="7">
         <v>22.7</v>
       </c>
-      <c r="V52" s="8">
+      <c r="V52" s="7">
         <v>15.3</v>
       </c>
-      <c r="W52" s="8">
+      <c r="W52" s="7">
         <v>6.9</v>
       </c>
-      <c r="X52" s="8">
+      <c r="X52" s="7">
         <v>4.8</v>
       </c>
-      <c r="Y52" s="8">
+      <c r="Y52" s="7">
         <v>5</v>
       </c>
-      <c r="Z52" s="8">
+      <c r="Z52" s="7">
         <v>20.399999999999999</v>
       </c>
-      <c r="AA52" s="6">
+      <c r="AA52" s="5">
         <v>20.100000000000001</v>
       </c>
-      <c r="AB52" s="6">
+      <c r="AB52" s="5">
         <v>-3.2</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="7"/>
-      <c r="B53" s="4" t="s">
+      <c r="A53" s="10"/>
+      <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="7"/>
+      <c r="K53" s="10"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
@@ -5212,113 +5212,113 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>27</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="6">
+      <c r="B54" s="4"/>
+      <c r="C54" s="5">
         <v>49</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>14</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>35</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>0.28599999999999998</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="5">
         <v>48.1</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="5">
         <v>112.6</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="7">
         <v>43</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="7">
         <v>91.1</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="5">
         <v>47.1</v>
       </c>
-      <c r="L54" s="8">
+      <c r="L54" s="7">
         <v>10.8</v>
       </c>
-      <c r="M54" s="8">
+      <c r="M54" s="7">
         <v>31.1</v>
       </c>
-      <c r="N54" s="6">
+      <c r="N54" s="5">
         <v>34.5</v>
       </c>
-      <c r="O54" s="6">
+      <c r="O54" s="5">
         <v>15.9</v>
       </c>
-      <c r="P54" s="6">
+      <c r="P54" s="5">
         <v>21.5</v>
       </c>
-      <c r="Q54" s="6">
+      <c r="Q54" s="5">
         <v>74.2</v>
       </c>
-      <c r="R54" s="8">
+      <c r="R54" s="7">
         <v>12</v>
       </c>
-      <c r="S54" s="8">
+      <c r="S54" s="7">
         <v>30.8</v>
       </c>
-      <c r="T54" s="8">
+      <c r="T54" s="7">
         <v>42.8</v>
       </c>
-      <c r="U54" s="8">
+      <c r="U54" s="7">
         <v>27</v>
       </c>
-      <c r="V54" s="8">
+      <c r="V54" s="7">
         <v>15.4</v>
       </c>
-      <c r="W54" s="8">
+      <c r="W54" s="7">
         <v>6.9</v>
       </c>
-      <c r="X54" s="8">
+      <c r="X54" s="7">
         <v>4</v>
       </c>
-      <c r="Y54" s="8">
+      <c r="Y54" s="7">
         <v>4.7</v>
       </c>
-      <c r="Z54" s="8">
+      <c r="Z54" s="7">
         <v>19.899999999999999</v>
       </c>
-      <c r="AA54" s="6">
+      <c r="AA54" s="5">
         <v>19</v>
       </c>
-      <c r="AB54" s="6">
+      <c r="AB54" s="5">
         <v>-9.5</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="7"/>
-      <c r="B55" s="4" t="s">
+      <c r="A55" s="10"/>
+      <c r="B55" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-      <c r="K55" s="7"/>
+      <c r="K55" s="10"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
@@ -5328,113 +5328,113 @@
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="7"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>28</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="6">
+      <c r="B56" s="4"/>
+      <c r="C56" s="5">
         <v>50</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>14</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>36</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="5">
         <v>48.6</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="5">
         <v>112</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="7">
         <v>41.8</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J56" s="7">
         <v>92.4</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="5">
         <v>45.2</v>
       </c>
-      <c r="L56" s="8">
+      <c r="L56" s="7">
         <v>10.7</v>
       </c>
-      <c r="M56" s="8">
+      <c r="M56" s="7">
         <v>33</v>
       </c>
-      <c r="N56" s="6">
+      <c r="N56" s="5">
         <v>32.4</v>
       </c>
-      <c r="O56" s="6">
+      <c r="O56" s="5">
         <v>17.8</v>
       </c>
-      <c r="P56" s="6">
+      <c r="P56" s="5">
         <v>23.7</v>
       </c>
-      <c r="Q56" s="6">
+      <c r="Q56" s="5">
         <v>75.099999999999994</v>
       </c>
-      <c r="R56" s="8">
+      <c r="R56" s="7">
         <v>12</v>
       </c>
-      <c r="S56" s="8">
+      <c r="S56" s="7">
         <v>33</v>
       </c>
-      <c r="T56" s="8">
+      <c r="T56" s="7">
         <v>45</v>
       </c>
-      <c r="U56" s="8">
+      <c r="U56" s="7">
         <v>25.2</v>
       </c>
-      <c r="V56" s="8">
+      <c r="V56" s="7">
         <v>13.7</v>
       </c>
-      <c r="W56" s="8">
+      <c r="W56" s="7">
         <v>8</v>
       </c>
-      <c r="X56" s="8">
+      <c r="X56" s="7">
         <v>5</v>
       </c>
-      <c r="Y56" s="8">
+      <c r="Y56" s="7">
         <v>6</v>
       </c>
-      <c r="Z56" s="8">
+      <c r="Z56" s="7">
         <v>21.1</v>
       </c>
-      <c r="AA56" s="6">
+      <c r="AA56" s="5">
         <v>20.8</v>
       </c>
-      <c r="AB56" s="6">
+      <c r="AB56" s="5">
         <v>-6.6</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="7"/>
-      <c r="B57" s="4" t="s">
+      <c r="A57" s="10"/>
+      <c r="B57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-      <c r="K57" s="7"/>
+      <c r="K57" s="10"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
@@ -5444,113 +5444,113 @@
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>29</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6">
+      <c r="B58" s="4"/>
+      <c r="C58" s="5">
         <v>50</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>13</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>37</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="5">
         <v>0.26</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="5">
         <v>48.3</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="5">
         <v>112.8</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="7">
         <v>40</v>
       </c>
-      <c r="J58" s="8">
+      <c r="J58" s="7">
         <v>87.9</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="5">
         <v>45.5</v>
       </c>
-      <c r="L58" s="8">
+      <c r="L58" s="7">
         <v>11.7</v>
       </c>
-      <c r="M58" s="8">
+      <c r="M58" s="7">
         <v>32.9</v>
       </c>
-      <c r="N58" s="6">
+      <c r="N58" s="5">
         <v>35.700000000000003</v>
       </c>
-      <c r="O58" s="6">
+      <c r="O58" s="5">
         <v>21.1</v>
       </c>
-      <c r="P58" s="6">
+      <c r="P58" s="5">
         <v>27.2</v>
       </c>
-      <c r="Q58" s="6">
+      <c r="Q58" s="5">
         <v>77.5</v>
       </c>
-      <c r="R58" s="8">
+      <c r="R58" s="7">
         <v>11.1</v>
       </c>
-      <c r="S58" s="8">
+      <c r="S58" s="7">
         <v>31.5</v>
       </c>
-      <c r="T58" s="8">
+      <c r="T58" s="7">
         <v>42.6</v>
       </c>
-      <c r="U58" s="8">
+      <c r="U58" s="7">
         <v>22.7</v>
       </c>
-      <c r="V58" s="8">
+      <c r="V58" s="7">
         <v>14.8</v>
       </c>
-      <c r="W58" s="8">
+      <c r="W58" s="7">
         <v>7.2</v>
       </c>
-      <c r="X58" s="8">
+      <c r="X58" s="7">
         <v>3.6</v>
       </c>
-      <c r="Y58" s="8">
+      <c r="Y58" s="7">
         <v>5.8</v>
       </c>
-      <c r="Z58" s="8">
+      <c r="Z58" s="7">
         <v>22</v>
       </c>
-      <c r="AA58" s="6">
+      <c r="AA58" s="5">
         <v>21.7</v>
       </c>
-      <c r="AB58" s="6">
+      <c r="AB58" s="5">
         <v>-7.5</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="7"/>
-      <c r="B59" s="4" t="s">
+      <c r="A59" s="10"/>
+      <c r="B59" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
-      <c r="K59" s="7"/>
+      <c r="K59" s="10"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
@@ -5560,199 +5560,841 @@
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>30</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="6">
+      <c r="B60" s="4"/>
+      <c r="C60" s="5">
         <v>49</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>11</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>38</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="5">
         <v>0.224</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="5">
         <v>48.2</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="5">
         <v>109.4</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="7">
         <v>39.700000000000003</v>
       </c>
-      <c r="J60" s="8">
+      <c r="J60" s="7">
         <v>88.3</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="5">
         <v>44.9</v>
       </c>
-      <c r="L60" s="8">
+      <c r="L60" s="7">
         <v>11.2</v>
       </c>
-      <c r="M60" s="8">
+      <c r="M60" s="7">
         <v>34.299999999999997</v>
       </c>
-      <c r="N60" s="6">
+      <c r="N60" s="5">
         <v>32.700000000000003</v>
       </c>
-      <c r="O60" s="6">
+      <c r="O60" s="5">
         <v>18.899999999999999</v>
       </c>
-      <c r="P60" s="6">
+      <c r="P60" s="5">
         <v>25.2</v>
       </c>
-      <c r="Q60" s="6">
+      <c r="Q60" s="5">
         <v>75</v>
       </c>
-      <c r="R60" s="8">
+      <c r="R60" s="7">
         <v>13.1</v>
       </c>
-      <c r="S60" s="8">
+      <c r="S60" s="7">
         <v>33.700000000000003</v>
       </c>
-      <c r="T60" s="8">
+      <c r="T60" s="7">
         <v>46.8</v>
       </c>
-      <c r="U60" s="8">
+      <c r="U60" s="7">
         <v>22.4</v>
       </c>
-      <c r="V60" s="8">
+      <c r="V60" s="7">
         <v>17.100000000000001</v>
       </c>
-      <c r="W60" s="8">
+      <c r="W60" s="7">
         <v>7.2</v>
       </c>
-      <c r="X60" s="8">
+      <c r="X60" s="7">
         <v>4.8</v>
       </c>
-      <c r="Y60" s="8">
+      <c r="Y60" s="7">
         <v>6.1</v>
       </c>
-      <c r="Z60" s="8">
+      <c r="Z60" s="7">
         <v>20.6</v>
       </c>
-      <c r="AA60" s="6">
+      <c r="AA60" s="5">
         <v>21.2</v>
       </c>
-      <c r="AB60" s="6">
+      <c r="AB60" s="5">
         <v>-7.7</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A61" s="10"/>
-      <c r="B61" s="4" t="s">
+      <c r="A61" s="6"/>
+      <c r="B61" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
-      <c r="AA61" s="10"/>
-      <c r="AB61" s="10"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="810">
-    <mergeCell ref="AA60:AA61"/>
-    <mergeCell ref="AB60:AB61"/>
-    <mergeCell ref="U60:U61"/>
-    <mergeCell ref="V60:V61"/>
-    <mergeCell ref="W60:W61"/>
-    <mergeCell ref="X60:X61"/>
-    <mergeCell ref="Y60:Y61"/>
-    <mergeCell ref="Z60:Z61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="R60:R61"/>
-    <mergeCell ref="S60:S61"/>
-    <mergeCell ref="T60:T61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="Z58:Z59"/>
-    <mergeCell ref="AA58:AA59"/>
-    <mergeCell ref="AB58:AB59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="U58:U59"/>
-    <mergeCell ref="V58:V59"/>
-    <mergeCell ref="W58:W59"/>
-    <mergeCell ref="X58:X59"/>
-    <mergeCell ref="Y58:Y59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="S58:S59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="W56:W57"/>
-    <mergeCell ref="X56:X57"/>
-    <mergeCell ref="Y56:Y57"/>
-    <mergeCell ref="Z56:Z57"/>
-    <mergeCell ref="AA56:AA57"/>
-    <mergeCell ref="AB56:AB57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="S56:S57"/>
-    <mergeCell ref="T56:T57"/>
-    <mergeCell ref="U56:U57"/>
-    <mergeCell ref="V56:V57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="AB36:AB37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="Y36:Y37"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="Y38:Y39"/>
+    <mergeCell ref="Z38:Z39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="AA40:AA41"/>
+    <mergeCell ref="AB40:AB41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="Y40:Y41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="AA42:AA43"/>
+    <mergeCell ref="AB42:AB43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="W42:W43"/>
+    <mergeCell ref="X42:X43"/>
+    <mergeCell ref="Y42:Y43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="Z42:Z43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="AA44:AA45"/>
+    <mergeCell ref="AB44:AB45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="Y44:Y45"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="AB46:AB47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="W46:W47"/>
+    <mergeCell ref="X46:X47"/>
+    <mergeCell ref="Y46:Y47"/>
+    <mergeCell ref="Z46:Z47"/>
+    <mergeCell ref="AA46:AA47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="U46:U47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="Z48:Z49"/>
+    <mergeCell ref="AA48:AA49"/>
+    <mergeCell ref="AB48:AB49"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="S48:S49"/>
+    <mergeCell ref="T48:T49"/>
+    <mergeCell ref="U48:U49"/>
+    <mergeCell ref="V48:V49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="W48:W49"/>
+    <mergeCell ref="X48:X49"/>
+    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="AA50:AA51"/>
+    <mergeCell ref="AB50:AB51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="T50:T51"/>
+    <mergeCell ref="U50:U51"/>
+    <mergeCell ref="V50:V51"/>
+    <mergeCell ref="W50:W51"/>
+    <mergeCell ref="X50:X51"/>
+    <mergeCell ref="Y50:Y51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="S50:S51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="Z50:Z51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="AA52:AA53"/>
+    <mergeCell ref="AB52:AB53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="U52:U53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R52:R53"/>
     <mergeCell ref="AB54:AB55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="C56:C57"/>
@@ -5777,720 +6419,78 @@
     <mergeCell ref="U54:U55"/>
     <mergeCell ref="J54:J55"/>
     <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="AA52:AA53"/>
-    <mergeCell ref="AB52:AB53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="U52:U53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="Y52:Y53"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="Z50:Z51"/>
-    <mergeCell ref="AA50:AA51"/>
-    <mergeCell ref="AB50:AB51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="T50:T51"/>
-    <mergeCell ref="U50:U51"/>
-    <mergeCell ref="V50:V51"/>
-    <mergeCell ref="W50:W51"/>
-    <mergeCell ref="X50:X51"/>
-    <mergeCell ref="Y50:Y51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="S50:S51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="W48:W49"/>
-    <mergeCell ref="X48:X49"/>
-    <mergeCell ref="Y48:Y49"/>
-    <mergeCell ref="Z48:Z49"/>
-    <mergeCell ref="AA48:AA49"/>
-    <mergeCell ref="AB48:AB49"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="S48:S49"/>
-    <mergeCell ref="T48:T49"/>
-    <mergeCell ref="U48:U49"/>
-    <mergeCell ref="V48:V49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="AB46:AB47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="V46:V47"/>
-    <mergeCell ref="W46:W47"/>
-    <mergeCell ref="X46:X47"/>
-    <mergeCell ref="Y46:Y47"/>
-    <mergeCell ref="Z46:Z47"/>
-    <mergeCell ref="AA46:AA47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="S46:S47"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="U46:U47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="AA44:AA45"/>
-    <mergeCell ref="AB44:AB45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="X44:X45"/>
-    <mergeCell ref="Y44:Y45"/>
-    <mergeCell ref="Z44:Z45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="Z42:Z43"/>
-    <mergeCell ref="AA42:AA43"/>
-    <mergeCell ref="AB42:AB43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="T42:T43"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="V42:V43"/>
-    <mergeCell ref="W42:W43"/>
-    <mergeCell ref="X42:X43"/>
-    <mergeCell ref="Y42:Y43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="W40:W41"/>
-    <mergeCell ref="X40:X41"/>
-    <mergeCell ref="Y40:Y41"/>
-    <mergeCell ref="Z40:Z41"/>
-    <mergeCell ref="AA40:AA41"/>
-    <mergeCell ref="AB40:AB41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="U40:U41"/>
-    <mergeCell ref="V40:V41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="Y38:Y39"/>
-    <mergeCell ref="Z38:Z39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="AB36:AB37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="X36:X37"/>
-    <mergeCell ref="Y36:Y37"/>
-    <mergeCell ref="Z36:Z37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AB18:AB19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="W56:W57"/>
+    <mergeCell ref="X56:X57"/>
+    <mergeCell ref="Y56:Y57"/>
+    <mergeCell ref="Z56:Z57"/>
+    <mergeCell ref="AA56:AA57"/>
+    <mergeCell ref="AB56:AB57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="S56:S57"/>
+    <mergeCell ref="T56:T57"/>
+    <mergeCell ref="U56:U57"/>
+    <mergeCell ref="V56:V57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="U58:U59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="S58:S59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="Z58:Z59"/>
+    <mergeCell ref="AA58:AA59"/>
+    <mergeCell ref="AB58:AB59"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="W58:W59"/>
+    <mergeCell ref="X58:X59"/>
+    <mergeCell ref="Y58:Y59"/>
+    <mergeCell ref="AA60:AA61"/>
+    <mergeCell ref="AB60:AB61"/>
+    <mergeCell ref="U60:U61"/>
+    <mergeCell ref="V60:V61"/>
+    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="Y60:Y61"/>
+    <mergeCell ref="Z60:Z61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="R60:R61"/>
+    <mergeCell ref="S60:S61"/>
+    <mergeCell ref="T60:T61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.nba.com/stats/team/1610612738/traditional" xr:uid="{8C197CCB-1F5C-4F65-97A0-622E861F3F6D}"/>
@@ -6926,7 +6926,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90963A4C-2384-4A01-B7AB-BDBD24B79065}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{106BAF29-9050-4CC8-A79D-960B7F2A1A1A}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>